--- a/Documentacion/Casos de Prueba/Trazabilidad Fallas - CP.xlsx
+++ b/Documentacion/Casos de Prueba/Trazabilidad Fallas - CP.xlsx
@@ -2767,55 +2767,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3136,7 +3088,7 @@
   <dimension ref="A1:F801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E792" sqref="E792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8849,7 +8801,7 @@
         <v>457</v>
       </c>
       <c r="C407" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D407" t="s">
         <v>896</v>
@@ -9017,7 +8969,7 @@
         <v>470</v>
       </c>
       <c r="C419" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D419" t="s">
         <v>896</v>
@@ -9269,7 +9221,7 @@
         <v>491</v>
       </c>
       <c r="C437" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D437" t="s">
         <v>896</v>
@@ -9479,7 +9431,7 @@
         <v>508</v>
       </c>
       <c r="C452" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D452" t="s">
         <v>896</v>
@@ -9829,7 +9781,7 @@
         <v>534</v>
       </c>
       <c r="C477" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D477" t="s">
         <v>896</v>
@@ -9857,7 +9809,7 @@
         <v>536</v>
       </c>
       <c r="C479" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D479" t="s">
         <v>896</v>
@@ -10025,7 +9977,7 @@
         <v>548</v>
       </c>
       <c r="C491" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D491" t="s">
         <v>896</v>
@@ -10207,7 +10159,7 @@
         <v>563</v>
       </c>
       <c r="C504" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D504" t="s">
         <v>896</v>
@@ -10333,7 +10285,7 @@
         <v>573</v>
       </c>
       <c r="C513" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D513" t="s">
         <v>896</v>
@@ -10473,7 +10425,7 @@
         <v>583</v>
       </c>
       <c r="C523" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D523" t="s">
         <v>896</v>
@@ -10809,7 +10761,7 @@
         <v>609</v>
       </c>
       <c r="C547" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D547" t="s">
         <v>896</v>
@@ -10977,7 +10929,7 @@
         <v>622</v>
       </c>
       <c r="C559" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D559" t="s">
         <v>896</v>
@@ -11285,7 +11237,7 @@
         <v>645</v>
       </c>
       <c r="C581" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D581" t="s">
         <v>896</v>
@@ -11509,7 +11461,7 @@
         <v>662</v>
       </c>
       <c r="C597" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D597" t="s">
         <v>896</v>
@@ -11607,7 +11559,7 @@
         <v>669</v>
       </c>
       <c r="C604" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D604" t="s">
         <v>896</v>
@@ -11705,7 +11657,7 @@
         <v>678</v>
       </c>
       <c r="C611" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D611" t="s">
         <v>896</v>
@@ -11887,7 +11839,7 @@
         <v>691</v>
       </c>
       <c r="C624" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D624" t="s">
         <v>896</v>
@@ -12125,7 +12077,7 @@
         <v>710</v>
       </c>
       <c r="C641" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D641" t="s">
         <v>896</v>
@@ -12181,7 +12133,7 @@
         <v>714</v>
       </c>
       <c r="C645" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D645" t="s">
         <v>896</v>
@@ -12307,7 +12259,7 @@
         <v>723</v>
       </c>
       <c r="C654" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D654" t="s">
         <v>896</v>
@@ -12419,7 +12371,7 @@
         <v>732</v>
       </c>
       <c r="C662" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D662" t="s">
         <v>896</v>
@@ -12755,7 +12707,7 @@
         <v>757</v>
       </c>
       <c r="C686" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D686" t="s">
         <v>896</v>
@@ -12797,7 +12749,7 @@
         <v>760</v>
       </c>
       <c r="C689" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D689" t="s">
         <v>896</v>
@@ -12811,7 +12763,7 @@
         <v>761</v>
       </c>
       <c r="C690" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D690" t="s">
         <v>896</v>
@@ -13161,7 +13113,7 @@
         <v>788</v>
       </c>
       <c r="C715" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D715" t="s">
         <v>896</v>
@@ -13175,7 +13127,7 @@
         <v>790</v>
       </c>
       <c r="C716" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D716" t="s">
         <v>896</v>
@@ -13203,7 +13155,7 @@
         <v>793</v>
       </c>
       <c r="C718" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D718" t="s">
         <v>896</v>
@@ -13273,7 +13225,7 @@
         <v>798</v>
       </c>
       <c r="C723" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D723" t="s">
         <v>896</v>
@@ -13609,7 +13561,7 @@
         <v>826</v>
       </c>
       <c r="C747" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D747" t="s">
         <v>896</v>
@@ -13651,7 +13603,7 @@
         <v>831</v>
       </c>
       <c r="C750" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D750" t="s">
         <v>896</v>
@@ -13959,7 +13911,7 @@
         <v>855</v>
       </c>
       <c r="C772" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D772" t="s">
         <v>896</v>
@@ -14133,7 +14085,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:5">
       <c r="A785" t="s">
         <v>861</v>
       </c>
@@ -14147,7 +14099,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:5">
       <c r="A786" t="s">
         <v>861</v>
       </c>
@@ -14161,7 +14113,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:5">
       <c r="A787" t="s">
         <v>861</v>
       </c>
@@ -14175,7 +14127,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:5">
       <c r="A788" t="s">
         <v>873</v>
       </c>
@@ -14189,7 +14141,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:5">
       <c r="A789" t="s">
         <v>873</v>
       </c>
@@ -14203,7 +14155,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:5">
       <c r="A790" t="s">
         <v>876</v>
       </c>
@@ -14217,7 +14169,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:5">
       <c r="A791" t="s">
         <v>876</v>
       </c>
@@ -14231,7 +14183,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:5">
       <c r="A792" t="s">
         <v>876</v>
       </c>
@@ -14239,13 +14191,16 @@
         <v>879</v>
       </c>
       <c r="C792" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D792" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="793" spans="1:4">
+      <c r="E792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5">
       <c r="A793" t="s">
         <v>876</v>
       </c>
@@ -14259,7 +14214,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:5">
       <c r="A794" t="s">
         <v>881</v>
       </c>
@@ -14273,7 +14228,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:5">
       <c r="A795" t="s">
         <v>881</v>
       </c>
@@ -14287,7 +14242,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:5">
       <c r="A796" t="s">
         <v>881</v>
       </c>
@@ -14301,7 +14256,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:5">
       <c r="A797" t="s">
         <v>881</v>
       </c>
@@ -14315,7 +14270,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" spans="1:5">
       <c r="A798" t="s">
         <v>881</v>
       </c>
@@ -14329,7 +14284,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:5">
       <c r="A799" t="s">
         <v>881</v>
       </c>
@@ -14343,7 +14298,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" spans="1:5">
       <c r="A800" t="s">
         <v>888</v>
       </c>
@@ -14373,7 +14328,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D801">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$E$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentacion/Casos de Prueba/Trazabilidad Fallas - CP.xlsx
+++ b/Documentacion/Casos de Prueba/Trazabilidad Fallas - CP.xlsx
@@ -2788,6 +2788,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D801" totalsRowShown="0">
   <autoFilter ref="A1:D801">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Paso"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="4">
@@ -3088,7 +3093,7 @@
   <dimension ref="A1:F801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E792" sqref="E792"/>
+      <selection activeCell="E739" sqref="E739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8793,7 +8798,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" hidden="1">
       <c r="A407" t="s">
         <v>455</v>
       </c>
@@ -8961,7 +8966,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" hidden="1">
       <c r="A419" t="s">
         <v>464</v>
       </c>
@@ -9213,7 +9218,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" hidden="1">
       <c r="A437" t="s">
         <v>490</v>
       </c>
@@ -9423,7 +9428,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" hidden="1">
       <c r="A452" t="s">
         <v>501</v>
       </c>
@@ -9773,7 +9778,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" hidden="1">
       <c r="A477" t="s">
         <v>526</v>
       </c>
@@ -9801,7 +9806,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" hidden="1">
       <c r="A479" t="s">
         <v>526</v>
       </c>
@@ -9969,7 +9974,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" hidden="1">
       <c r="A491" t="s">
         <v>526</v>
       </c>
@@ -10151,7 +10156,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" hidden="1">
       <c r="A504" t="s">
         <v>554</v>
       </c>
@@ -10277,7 +10282,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" hidden="1">
       <c r="A513" t="s">
         <v>571</v>
       </c>
@@ -10417,7 +10422,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" hidden="1">
       <c r="A523" t="s">
         <v>571</v>
       </c>
@@ -10554,7 +10559,7 @@
         <v>896</v>
       </c>
       <c r="D532" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10753,7 +10758,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" hidden="1">
       <c r="A547" t="s">
         <v>607</v>
       </c>
@@ -10921,7 +10926,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" hidden="1">
       <c r="A559" t="s">
         <v>610</v>
       </c>
@@ -11142,7 +11147,7 @@
         <v>896</v>
       </c>
       <c r="D574" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11229,7 +11234,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" hidden="1">
       <c r="A581" t="s">
         <v>637</v>
       </c>
@@ -11366,7 +11371,7 @@
         <v>896</v>
       </c>
       <c r="D590" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11453,7 +11458,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" hidden="1">
       <c r="A597" t="s">
         <v>654</v>
       </c>
@@ -11551,7 +11556,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" hidden="1">
       <c r="A604" t="s">
         <v>654</v>
       </c>
@@ -11576,7 +11581,7 @@
         <v>896</v>
       </c>
       <c r="D605" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11618,7 +11623,7 @@
         <v>896</v>
       </c>
       <c r="D608" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11649,7 +11654,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" hidden="1">
       <c r="A611" t="s">
         <v>674</v>
       </c>
@@ -11831,7 +11836,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" hidden="1">
       <c r="A624" t="s">
         <v>674</v>
       </c>
@@ -12069,7 +12074,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" hidden="1">
       <c r="A641" t="s">
         <v>702</v>
       </c>
@@ -12125,7 +12130,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" hidden="1">
       <c r="A645" t="s">
         <v>702</v>
       </c>
@@ -12251,7 +12256,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" hidden="1">
       <c r="A654" t="s">
         <v>702</v>
       </c>
@@ -12363,7 +12368,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" hidden="1">
       <c r="A662" t="s">
         <v>728</v>
       </c>
@@ -12699,7 +12704,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" hidden="1">
       <c r="A686" t="s">
         <v>751</v>
       </c>
@@ -12741,7 +12746,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" hidden="1">
       <c r="A689" t="s">
         <v>751</v>
       </c>
@@ -12755,7 +12760,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" hidden="1">
       <c r="A690" t="s">
         <v>751</v>
       </c>
@@ -13105,7 +13110,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" hidden="1">
       <c r="A715" t="s">
         <v>781</v>
       </c>
@@ -13119,7 +13124,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" hidden="1">
       <c r="A716" t="s">
         <v>789</v>
       </c>
@@ -13147,7 +13152,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" hidden="1">
       <c r="A718" t="s">
         <v>792</v>
       </c>
@@ -13217,7 +13222,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" hidden="1">
       <c r="A723" t="s">
         <v>792</v>
       </c>
@@ -13242,7 +13247,7 @@
         <v>896</v>
       </c>
       <c r="D724" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -13452,7 +13457,7 @@
         <v>896</v>
       </c>
       <c r="D739" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13553,7 +13558,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" hidden="1">
       <c r="A747" t="s">
         <v>819</v>
       </c>
@@ -13595,7 +13600,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" hidden="1">
       <c r="A750" t="s">
         <v>830</v>
       </c>
@@ -13903,7 +13908,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" hidden="1">
       <c r="A772" t="s">
         <v>853</v>
       </c>
@@ -14183,7 +14188,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" hidden="1">
       <c r="A792" t="s">
         <v>876</v>
       </c>
